--- a/authors.xlsx
+++ b/authors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Markov folder\__nastava\asm\Projekat\2019-2020\PZ2\Podaci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Faks\Master studije\Analiza socijalnih mreža\Projekat\Drugi deo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026FD29-3D05-4453-A67D-27D79A992682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D12F1-8EBC-45C8-AF87-8B24AB65AA79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matematicki fakultet" sheetId="1" r:id="rId1"/>
@@ -1070,19 +1070,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C40"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1732,18 +1732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2399,18 +2399,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>194</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>196</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>204</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>210</v>
       </c>
